--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -29,7 +29,7 @@
     <t>PASSED</t>
   </si>
   <si>
-    <t>Tue Mar 18 13:12:30 IST 2025</t>
+    <t>Wed Jul 16 18:53:45 IST 2025</t>
   </si>
 </sst>
 </file>
